--- a/PCB设计文件/Altium/智能车驱动板DRV8701E/BOM/智能车驱动板DRV8701E.xlsx
+++ b/PCB设计文件/Altium/智能车驱动板DRV8701E/BOM/智能车驱动板DRV8701E.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>Comment</t>
   </si>
@@ -54,21 +54,18 @@
     <t>C-SMD</t>
   </si>
   <si>
-    <t>B5919WS</t>
+    <t>1N5819</t>
   </si>
   <si>
     <t>肖特基二极管</t>
   </si>
   <si>
-    <t>D1, D4</t>
+    <t>D1, D3</t>
   </si>
   <si>
     <t>SOD-323</t>
   </si>
   <si>
-    <t>1N5819</t>
-  </si>
-  <si>
     <t>LED</t>
   </si>
   <si>
@@ -90,7 +87,7 @@
     <t>3.3V稳压二极管</t>
   </si>
   <si>
-    <t>D3</t>
+    <t>D4</t>
   </si>
   <si>
     <t>SOD-123-L</t>
@@ -105,7 +102,7 @@
     <t>直插固态电容</t>
   </si>
   <si>
-    <t>E?1</t>
+    <t>E1</t>
   </si>
   <si>
     <t>CT-2.0*5*8-R</t>
@@ -129,7 +126,7 @@
     <t>HT-2P</t>
   </si>
   <si>
-    <t>J?1</t>
+    <t>J3</t>
   </si>
   <si>
     <t>CZ-5.08-L-Z-2P</t>
@@ -549,7 +546,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3" s="27">
         <v>2</v>
@@ -557,19 +554,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F4" s="27">
         <v>2</v>
@@ -577,19 +574,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F5" s="27">
         <v>1</v>
@@ -597,19 +594,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="F6" s="27">
         <v>1</v>
@@ -617,19 +614,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="C7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>35</v>
-      </c>
       <c r="E7" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="27">
         <v>2</v>
@@ -637,19 +634,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="E8" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="27">
         <v>1</v>
@@ -657,19 +654,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="E9" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="27">
         <v>8</v>
@@ -677,19 +674,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="F10" s="27">
         <v>7</v>
@@ -697,19 +694,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="E11" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="F11" s="27">
         <v>1</v>
@@ -717,19 +714,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="C12" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="D12" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>56</v>
-      </c>
       <c r="E12" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="27">
         <v>2</v>
@@ -737,19 +734,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="D13" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>60</v>
-      </c>
       <c r="E13" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="27">
         <v>1</v>
@@ -757,17 +754,17 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>63</v>
-      </c>
       <c r="E14" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" s="27">
         <v>1</v>

--- a/PCB设计文件/Altium/智能车驱动板DRV8701E/BOM/智能车驱动板DRV8701E.xlsx
+++ b/PCB设计文件/Altium/智能车驱动板DRV8701E/BOM/智能车驱动板DRV8701E.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>Comment</t>
   </si>
@@ -39,22 +39,34 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>贴片电容</t>
+  </si>
+  <si>
+    <t>C1, C5, C6, C9, C11, C12</t>
+  </si>
+  <si>
+    <t>C0603_L</t>
+  </si>
+  <si>
+    <t>C-SMD</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>C2, C8</t>
+  </si>
+  <si>
     <t>100nF</t>
   </si>
   <si>
-    <t>贴片电容</t>
-  </si>
-  <si>
-    <t>C1, C2, C3, C4, C5, C6, C7, C8, C9, C10, C11, C12</t>
-  </si>
-  <si>
-    <t>C0603_L</t>
-  </si>
-  <si>
-    <t>C-SMD</t>
-  </si>
-  <si>
-    <t>B5919WS</t>
+    <t>C3, C4, C7, C10</t>
+  </si>
+  <si>
+    <t>1N5819</t>
   </si>
   <si>
     <t>肖特基二极管</t>
@@ -66,9 +78,6 @@
     <t>SOD-323</t>
   </si>
   <si>
-    <t>1N5819</t>
-  </si>
-  <si>
     <t>LED</t>
   </si>
   <si>
@@ -105,7 +114,7 @@
     <t>直插固态电容</t>
   </si>
   <si>
-    <t>E?1</t>
+    <t>E1</t>
   </si>
   <si>
     <t>CT-2.0*5*8-R</t>
@@ -120,7 +129,7 @@
     <t>30A Low Temperature Rise Fire Retardant Plug</t>
   </si>
   <si>
-    <t>J1, J2</t>
+    <t>J1, J3</t>
   </si>
   <si>
     <t>XT30-WI</t>
@@ -129,7 +138,7 @@
     <t>HT-2P</t>
   </si>
   <si>
-    <t>J?1</t>
+    <t>J2</t>
   </si>
   <si>
     <t>CZ-5.08-L-Z-2P</t>
@@ -484,7 +493,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -492,7 +501,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" baseColWidth="0"/>
   <cols>
-    <col min="1" max="6" width="19.953125" customWidth="1"/>
+    <col min="1" max="6" width="20.2109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -532,7 +541,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="24">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -540,16 +549,16 @@
         <v>12</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" s="16" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F3" s="27">
         <v>2</v>
@@ -557,99 +566,99 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F4" s="27">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="26" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F5" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F6" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="26" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F7" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="26" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="E8" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F8" s="27">
         <v>1</v>
@@ -657,99 +666,99 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F9" s="27">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F10" s="27">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="26" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F11" s="27">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="26" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F12" s="27">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="26" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F13" s="27">
         <v>1</v>
@@ -757,19 +766,59 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D15" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="27">
+      <c r="E15" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="27">
         <v>1</v>
       </c>
     </row>
